--- a/Planner test/møder.xlsx
+++ b/Planner test/møder.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcv\Desktop\Planner test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanman\PycharmProjects\Planner\Planner test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9503C446-16E8-4BF7-8A23-E871EF4CB60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB34DE6-B1A2-4466-9B39-D46F2BD7ED46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4215" windowWidth="28800" windowHeight="15435" xr2:uid="{3B3CEAA9-F5DA-4268-98CF-B4E510633B34}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18705" windowHeight="11040" xr2:uid="{3B3CEAA9-F5DA-4268-98CF-B4E510633B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -62,13 +54,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Hej</t>
-  </si>
-  <si>
     <t>Med</t>
   </si>
   <si>
     <t>Dig</t>
+  </si>
+  <si>
+    <t>Ledermøde</t>
   </si>
 </sst>
 </file>
@@ -420,14 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB4165F-1301-4ADC-B880-BD8F7E07F2A4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -458,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -467,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -487,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,13 +491,99 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
